--- a/USHPRR/UMo_defects_pressure_800_600.xlsx
+++ b/USHPRR/UMo_defects_pressure_800_600.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDA6E8A-EE20-8F48-B914-4176D1FF38F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F6D340-2A07-2B45-A283-3F07E1F4AAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="720" windowWidth="34700" windowHeight="20300" xr2:uid="{CF7A273F-A15D-064C-84B5-4D14A9807DE6}"/>
+    <workbookView xWindow="12100" yWindow="3520" windowWidth="34700" windowHeight="20300" xr2:uid="{CF7A273F-A15D-064C-84B5-4D14A9807DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="bccU" sheetId="1" r:id="rId1"/>
@@ -8525,16 +8525,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8803,9 +8803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8843,7 +8843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8949,7 +8949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9091,7 +9091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9101,8 +9101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1073CA55-B1C7-114B-B7E4-9FC7986A14AD}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
